--- a/result.xlsx
+++ b/result.xlsx
@@ -414,16 +414,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9166666865348816</v>
+        <v>0.9193548560142517</v>
       </c>
       <c r="C2">
-        <v>0.9583333134651184</v>
+        <v>0.8870967626571655</v>
       </c>
       <c r="D2">
-        <v>0.9583333134651184</v>
+        <v>0.8709677457809448</v>
       </c>
       <c r="E2">
-        <v>0.9583333134651184</v>
+        <v>0.9193548560142517</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9719101190567017</v>
+        <v>0.9686098694801331</v>
       </c>
       <c r="C3">
-        <v>0.966292142868042</v>
+        <v>0.9831838607788086</v>
       </c>
       <c r="D3">
-        <v>0.9606741666793823</v>
+        <v>0.9820627570152283</v>
       </c>
       <c r="E3">
-        <v>0.9775280952453613</v>
+        <v>0.9775784611701965</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,16 +448,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9523809552192688</v>
+        <v>0.9579439163208008</v>
       </c>
       <c r="C4">
-        <v>0.9047619104385376</v>
+        <v>0.9392523169517517</v>
       </c>
       <c r="D4">
-        <v>0.9523809552192688</v>
+        <v>0.9158878326416016</v>
       </c>
       <c r="E4">
-        <v>0.976190447807312</v>
+        <v>0.9345794320106506</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,16 +465,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.9583333134651184</v>
+        <v>0.8416666388511658</v>
       </c>
       <c r="C5">
-        <v>0.8333333134651184</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="D5">
-        <v>0.7916666865348816</v>
+        <v>0.8666666746139526</v>
       </c>
       <c r="E5">
-        <v>0.8333333134651184</v>
+        <v>0.8916666507720947</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,16 +499,16 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.6327982544898987</v>
+        <v>0.6225425004959106</v>
       </c>
       <c r="C8">
-        <v>0.6912631988525391</v>
+        <v>0.6435129642486572</v>
       </c>
       <c r="D8">
-        <v>0.7464662194252014</v>
+        <v>0.6308321952819824</v>
       </c>
       <c r="E8">
-        <v>0.6818587779998779</v>
+        <v>0.6729159951210022</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -516,16 +516,16 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.9382031559944153</v>
+        <v>0.9568235874176025</v>
       </c>
       <c r="C9">
-        <v>0.9864327907562256</v>
+        <v>0.9779515862464905</v>
       </c>
       <c r="D9">
-        <v>0.9176502227783203</v>
+        <v>0.956662654876709</v>
       </c>
       <c r="E9">
-        <v>0.9500020146369934</v>
+        <v>0.9374448657035828</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -533,16 +533,16 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0.8312057256698608</v>
+        <v>0.8140592575073242</v>
       </c>
       <c r="C10">
-        <v>0.7554435729980469</v>
+        <v>0.8190062046051025</v>
       </c>
       <c r="D10">
-        <v>0.7776896953582764</v>
+        <v>0.7460904717445374</v>
       </c>
       <c r="E10">
-        <v>0.9072768688201904</v>
+        <v>0.813665509223938</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -550,16 +550,16 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>0.8278207778930664</v>
+        <v>0.5913258194923401</v>
       </c>
       <c r="C11">
-        <v>0.5506941676139832</v>
+        <v>0.5476109385490417</v>
       </c>
       <c r="D11">
-        <v>0.5122424960136414</v>
+        <v>0.6054597496986389</v>
       </c>
       <c r="E11">
-        <v>0.5550268292427063</v>
+        <v>0.6461558938026428</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -584,16 +584,16 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>0.4436650574207306</v>
+        <v>0.4618940353393555</v>
       </c>
       <c r="C14">
-        <v>0.4029796421527863</v>
+        <v>0.440079927444458</v>
       </c>
       <c r="D14">
-        <v>0.3804329335689545</v>
+        <v>0.4686939716339111</v>
       </c>
       <c r="E14">
-        <v>0.4088082611560822</v>
+        <v>0.4279103577136993</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -601,16 +601,16 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>0.2517097890377045</v>
+        <v>0.2423752546310425</v>
       </c>
       <c r="C15">
-        <v>0.1522265374660492</v>
+        <v>0.1600784957408905</v>
       </c>
       <c r="D15">
-        <v>0.2026644945144653</v>
+        <v>0.1721931546926498</v>
       </c>
       <c r="E15">
-        <v>0.1950222849845886</v>
+        <v>0.2147724479436874</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -618,16 +618,16 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>0.3813518285751343</v>
+        <v>0.3586573004722595</v>
       </c>
       <c r="C16">
-        <v>0.4270519912242889</v>
+        <v>0.3699548244476318</v>
       </c>
       <c r="D16">
-        <v>0.383199155330658</v>
+        <v>0.413920521736145</v>
       </c>
       <c r="E16">
-        <v>0.3329293727874756</v>
+        <v>0.3594115078449249</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -635,16 +635,16 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>0.3573309183120728</v>
+        <v>0.5329910516738892</v>
       </c>
       <c r="C17">
-        <v>0.5280148386955261</v>
+        <v>0.5389851927757263</v>
       </c>
       <c r="D17">
-        <v>0.5131304264068604</v>
+        <v>0.4909029304981232</v>
       </c>
       <c r="E17">
-        <v>0.5316856503486633</v>
+        <v>0.4563428461551666</v>
       </c>
     </row>
   </sheetData>
